--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9CA16-CB4C-4708-AD31-9E0D7BC8189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527BB62-9ECF-4817-9F42-740D60013EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2304" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="4380" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -29,26 +29,18 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestBuff1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestBuff1002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Action分组</t>
   </si>
   <si>
     <t>Burn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ActionGroup</t>
@@ -58,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +59,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -128,21 +113,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -468,97 +452,72 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="4"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527BB62-9ECF-4817-9F42-740D60013EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF677F3-FA5D-4691-8E6A-3B45E1AD7466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="4380" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>ActionGroup</t>
+  </si>
+  <si>
+    <t>Eyepiece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,7 +444,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -502,12 +510,27 @@
       </c>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF677F3-FA5D-4691-8E6A-3B45E1AD7466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147E9A3-4384-4788-B028-7DDD29EADD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>Action分组</t>
-  </si>
-  <si>
-    <t>Burn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ActionGroup</t>
@@ -441,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -483,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -498,46 +494,35 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>1001</v>
+      <c r="C6" s="1">
+        <v>1002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
